--- a/tests/ExcelCompiler.Tests/SimpleFormulas.xlsx
+++ b/tests/ExcelCompiler.Tests/SimpleFormulas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tasou\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tasou\Source\Repos\ExcelCompiler\tests\ExcelCompiler.Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42432548-E8C6-4428-8C07-0D689F4DE472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC55B806-A499-45EF-A7FD-FB9F24AC65A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{219CDDE8-4B4A-49BD-82C4-96D9A031975D}"/>
   </bookViews>
@@ -71,8 +71,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1087B19-0563-465D-B68D-3875EAAD4EC2}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,6 +413,16 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
